--- a/File/요구사항명세서_20251028.xlsx
+++ b/File/요구사항명세서_20251028.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadSource\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2F04D1-51F1-487C-AACC-961AA8C32B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9B07A1-081B-40EC-9225-FA3544914667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2883,6 +2883,15 @@
   </si>
   <si>
     <t>USB-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자의 요구사항
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3223,26 +3232,56 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3252,36 +3291,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3402,8 +3411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="15240"/>
-          <a:ext cx="9134475" cy="1002030"/>
+          <a:off x="0" y="19050"/>
+          <a:ext cx="9144000" cy="1000125"/>
           <a:chOff x="19050" y="5714999"/>
           <a:chExt cx="10763250" cy="1181101"/>
         </a:xfrm>
@@ -4608,8 +4617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="15240"/>
-          <a:ext cx="9134475" cy="1002030"/>
+          <a:off x="0" y="19050"/>
+          <a:ext cx="9144000" cy="1000125"/>
           <a:chOff x="19050" y="5714999"/>
           <a:chExt cx="10763250" cy="1181101"/>
         </a:xfrm>
@@ -6138,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
@@ -6151,34 +6160,37 @@
     <col min="12" max="12" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.19921875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.8984375" style="3"/>
+    <col min="15" max="15" width="38.796875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="39" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="20"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="34" t="s">
         <v>91</v>
       </c>
@@ -6190,24 +6202,24 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="35"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="36"/>
@@ -6215,677 +6227,729 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="16"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="30" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="M8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="33" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="30" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="30" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="30" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="30" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="30" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="30" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="30" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="30" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="30" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="30" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="30" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="33" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="30" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="33" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="30" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="33" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="30" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="30" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="33" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="30" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="30" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="33" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="30" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="30" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="A4:A6"/>
@@ -6902,62 +6966,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/File/요구사항명세서_20251028.xlsx
+++ b/File/요구사항명세서_20251028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadSource\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9B07A1-081B-40EC-9225-FA3544914667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D0465-D167-4D2C-8EEB-98C2A4402B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="작성예(인터페이스)" sheetId="15" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 명세서'!$A$1:$N$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 명세서'!$A$1:$N$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'작성예(비기능)'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'작성예(인터페이스)'!$A$1:$J$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'요구사항 명세서'!$A:$K,'요구사항 명세서'!$1:$7</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2608,36 +2608,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>프로젝트명</t>
@@ -2696,14 +2666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김대업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2775,9 +2737,6 @@
     <t>과전압, 과전류, 과전력, 과온도 발생 시 자동 차단 및 알람 표시</t>
   </si>
   <si>
-    <t>저전압 / 배터리 테스트 지원</t>
-  </si>
-  <si>
     <t>0~0.6V 영역까지 부하 적용 및 배터리 방전 테스트 가능</t>
   </si>
   <si>
@@ -2833,12 +2792,6 @@
   </si>
   <si>
     <t>시험 종료 시 강제 방전, DUT 안전 확보</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>중요도
@@ -2890,8 +2843,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사용자의 요구사항
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자의 요구사항 x
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저전압 / 배터리 테스트
+지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2899,7 +2868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2997,14 +2966,6 @@
       <sz val="20"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3191,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3229,10 +3190,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3241,46 +3199,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3309,6 +3246,45 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6145,10 +6121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
@@ -6161,766 +6137,668 @@
     <col min="13" max="13" width="2.19921875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8" style="3" customWidth="1"/>
     <col min="15" max="15" width="38.796875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.8984375" style="3"/>
+    <col min="16" max="17" width="8.8984375" style="3"/>
+    <col min="18" max="18" width="34.3984375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="39" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34" t="s">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="22.95" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="P3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A5" s="33"/>
       <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="C5" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="34"/>
       <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="C6" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="7" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="8" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="B8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="9" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="B9" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="10" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="11" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
+      <c r="B11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="12" spans="1:28" ht="34.950000000000003" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" ht="34.950000000000003" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
+      <c r="B13" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="41"/>
     </row>
-    <row r="13" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:28" ht="34.950000000000003" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
+      <c r="B14" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="39"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+    <row r="15" spans="1:28" ht="34.950000000000003" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+    <row r="16" spans="1:28" ht="34.950000000000003" customHeight="1">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+    <row r="17" spans="15:19" ht="34.950000000000003" customHeight="1">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" ht="34.950000000000003" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
+    <row r="18" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="19" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="20" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="21" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="22" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="23" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="24" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="25" spans="15:19" ht="34.950000000000003" customHeight="1"/>
+    <row r="26" spans="15:19" ht="34.950000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E24:K24"/>
+  <mergeCells count="56">
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E8:K8"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:K15"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:K7"/>
     <mergeCell ref="E12:K12"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K3:N3"/>
@@ -6928,50 +6806,19 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:H3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
